--- a/Learn & Exec #1/Documentation Exec/Documentation Exec #1 5-Sheets.xlsx
+++ b/Learn & Exec #1/Documentation Exec/Documentation Exec #1 5-Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARNING HACKING\90 SOC Beginner Github-Discord\90-Days-SOC-Challenge-Beginner-main\Challenge#1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E75CBC-841E-42D0-8A75-5D7BDE487573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313A0C1B-E56D-435C-8B9B-C026A423AAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8DC7380E-EADD-4B4C-891F-C4B02BA9411C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8DC7380E-EADD-4B4C-891F-C4B02BA9411C}"/>
   </bookViews>
   <sheets>
     <sheet name="Task #1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t xml:space="preserve">Terlihat pada EVENT ID 4104(Execute a Remote Command) bahwa attacker sedang menginputkan sesuatu command </t>
   </si>
@@ -189,6 +189,48 @@
   </si>
   <si>
     <t>Menganalisis Upaya Masuk untuk Kemungkinan Aktivitas Brute-Force Untuk memeriksa beberapa upaya login yang gagal dari pengguna atau IP yang sama:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Situasi Jika Attacker akan membuka notepad.exe melalui terminal dengan command </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Start-Process notepad.exe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sysmon akan mendeteksi / mencatat log </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Process Creation dengan EVENT ID 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Bisa juga dengan menggunakan alternatif lain dari Command PowerShell, berikut command dan penjelasannya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selesai belajar, Sysmon bekerja di EVENT ID 1-15, membantu saya untuk memantau dan menganalisis peristiwa yang terkait </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dengan aktivitas sistem utama, pelacakan proses penting dalam mendeteksi aktivitas malware karena kita dapat mengetahui </t>
+  </si>
+  <si>
+    <t>apa yang dilakukan penyerang dari tahap awal hingga malware dieksekusi. dan dapat lebih cepat dalam menangani pemberantasan malware</t>
   </si>
 </sst>
 </file>
@@ -243,13 +285,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,6 +681,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>112548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B786849-F21F-CA18-4615-F5462A4E8B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="428625"/>
+          <a:ext cx="11557907" cy="6160923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>239520</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>10147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C1684C-6715-D94A-6F41-B428231DCD57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7172325"/>
+          <a:ext cx="9993120" cy="4458322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -985,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F647538B-10D2-4F6C-B41C-E7B8C01883C0}">
   <dimension ref="A2:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V101" sqref="V101"/>
     </sheetView>
   </sheetViews>
@@ -1054,13 +1192,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A73C0E-F4FB-40F3-9015-A97F8024408F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A63:A65"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
